--- a/simulations/raw_inclusion_exclusion/van_der_Waal_2022 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_der_Waal_2022 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.8181818181818182</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="D3">
         <v>0.9696969696969697</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7593908629441625</v>
+        <v>0.7649746192893401</v>
       </c>
       <c r="I3">
-        <v>0.06077814802647018</v>
+        <v>0.05384771827724848</v>
       </c>
       <c r="J3">
-        <v>0.7272727272727273</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="K3">
-        <v>134.7272727272727</v>
+        <v>121.3030303030303</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>29</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="S3">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="T3">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="U3">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="V3">
-        <v>1913</v>
+        <v>1930</v>
       </c>
       <c r="W3">
-        <v>1908</v>
+        <v>1923</v>
       </c>
       <c r="X3">
-        <v>1875</v>
+        <v>1888</v>
       </c>
       <c r="Y3">
-        <v>1826</v>
+        <v>1842</v>
       </c>
       <c r="Z3">
-        <v>1694</v>
+        <v>1762</v>
       </c>
       <c r="AA3">
         <v>30</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.98761</v>
+        <v>0.996386</v>
       </c>
       <c r="AG3">
-        <v>0.985028</v>
+        <v>0.992772</v>
       </c>
       <c r="AH3">
-        <v>0.967992</v>
+        <v>0.974703</v>
       </c>
       <c r="AI3">
-        <v>0.9426949999999999</v>
+        <v>0.950955</v>
       </c>
       <c r="AJ3">
-        <v>0.874548</v>
+        <v>0.909654</v>
       </c>
     </row>
   </sheetData>
